--- a/TL3/mediciones/Rta en frec/X1.xlsx
+++ b/TL3/mediciones/Rta en frec/X1.xlsx
@@ -19,35 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>1.15E-3</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,9 +53,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +341,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,24 +354,24 @@
       <c r="A1" s="1">
         <v>2270</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" s="3">
+        <v>1.15E-3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1600</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="B2" s="2">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1700</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="B3" s="2">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,72 +418,72 @@
       <c r="A9" s="1">
         <v>3300</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
+      <c r="B9" s="2">
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4000</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
+      <c r="B10" s="2">
+        <v>1.22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5000</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
+      <c r="B11" s="2">
+        <v>1.22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50000</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
+      <c r="B12" s="2">
+        <v>1.22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>100000</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
+      <c r="B13" s="2">
+        <v>1.19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>160000</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
+      <c r="B14" s="2">
+        <v>1.17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>220000</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
+      <c r="B15" s="2">
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>300000</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
+      <c r="B16" s="2">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>400000</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
+      <c r="B17" s="2">
+        <v>1.02</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
